--- a/output/pet_periods.xlsx
+++ b/output/pet_periods.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -553,7 +553,7 @@
         <v>0.2556391329351693</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928104578346535</v>
+        <v>0.1928104600994892</v>
       </c>
       <c r="I2" t="n">
         <v>0.2338512218225371</v>
@@ -568,7 +568,7 @@
         <v>0.327272687639509</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2763262530727409</v>
+        <v>0.2763262557841313</v>
       </c>
       <c r="N2" t="n">
         <v>0.1868479647459824</v>
@@ -612,7 +612,7 @@
         <v>0.9891365191020978</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8433152463625722</v>
+        <v>0.8433153613561875</v>
       </c>
       <c r="I3" t="n">
         <v>0.4374803003596899</v>
@@ -627,7 +627,7 @@
         <v>0.2544031387121014</v>
       </c>
       <c r="M3" t="n">
-        <v>0.336039569663041</v>
+        <v>0.3360395770447054</v>
       </c>
       <c r="N3" t="n">
         <v>0.4264693913674452</v>
@@ -671,7 +671,7 @@
         <v>0.3619087527695168</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2403918652806497</v>
+        <v>0.2403918918190201</v>
       </c>
       <c r="I4" t="n">
         <v>0.6084550182167741</v>
@@ -686,10 +686,10 @@
         <v>-0.1669266334313887</v>
       </c>
       <c r="M4" t="n">
-        <v>0.186110663526762</v>
+        <v>0.1861106631497134</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07317671728756774</v>
+        <v>0.073176717287568</v>
       </c>
       <c r="O4" t="n">
         <v>0.0236212298945425</v>
@@ -730,7 +730,7 @@
         <v>2.503876028905073</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4168217100055865</v>
+        <v>0.4168216403273032</v>
       </c>
       <c r="I5" t="n">
         <v>0.2726125552478436</v>
@@ -745,10 +745,10 @@
         <v>0.2752808338613665</v>
       </c>
       <c r="M5" t="n">
-        <v>0.372189430776044</v>
+        <v>0.3721894271860449</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4317353045650718</v>
+        <v>0.4317353045650714</v>
       </c>
       <c r="O5" t="n">
         <v>0.3090251575219037</v>
@@ -789,7 +789,7 @@
         <v>-0.5523598660841912</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1623271452043303</v>
+        <v>-0.1623270974879843</v>
       </c>
       <c r="I6" t="n">
         <v>-0.08260237768666438</v>
@@ -804,7 +804,7 @@
         <v>-0.2364170166646818</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1294963386239665</v>
+        <v>-0.1294963379328085</v>
       </c>
       <c r="N6" t="n">
         <v>-0.2276442200016602</v>
@@ -848,7 +848,7 @@
         <v>0.4332783985256746</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1240310544068412</v>
+        <v>0.1240310323615594</v>
       </c>
       <c r="I7" t="n">
         <v>0.05316817750574424</v>
@@ -863,10 +863,10 @@
         <v>0.05961535527155949</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05112527817231228</v>
+        <v>0.05112527721245142</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09126745498986526</v>
+        <v>0.09126745498986481</v>
       </c>
       <c r="O7" t="n">
         <v>0.07807121274189464</v>
@@ -907,7 +907,7 @@
         <v>-0.6609195384336661</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4420689943200802</v>
+        <v>-0.4420690150367642</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1960557017784216</v>
@@ -922,10 +922,10 @@
         <v>-0.03629764165854457</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.2421306550255684</v>
+        <v>-0.2421306537335905</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.3004605594566188</v>
+        <v>-0.3004605594566186</v>
       </c>
       <c r="O8" t="n">
         <v>-0.196596498766419</v>
@@ -966,7 +966,7 @@
         <v>0.3186440120759484</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0964153120248965</v>
+        <v>0.09641535800909144</v>
       </c>
       <c r="I9" t="n">
         <v>0.09668106583204486</v>
@@ -981,10 +981,10 @@
         <v>0.1054614397314453</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1123279939131534</v>
+        <v>0.1123279950955019</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1934060072430772</v>
+        <v>0.1934060072430773</v>
       </c>
       <c r="O9" t="n">
         <v>0.1111258993186553</v>
@@ -1025,7 +1025,7 @@
         <v>0.37429312004153</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1341600760804061</v>
+        <v>-0.1341600798813642</v>
       </c>
       <c r="I10" t="n">
         <v>0.03026320036379754</v>
@@ -1040,10 +1040,10 @@
         <v>-0.06303238015075917</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.07355028429160382</v>
+        <v>-0.07355027885558447</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.06865554331537389</v>
+        <v>-0.06865554331537391</v>
       </c>
       <c r="O10" t="n">
         <v>0.05703538609047965</v>
@@ -1084,7 +1084,7 @@
         <v>0.3866667005750868</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4670705414845457</v>
+        <v>0.467070500652348</v>
       </c>
       <c r="I11" t="n">
         <v>0.4866309977967768</v>
@@ -1099,10 +1099,10 @@
         <v>0.07272727272727272</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2056222659761123</v>
+        <v>0.2056222616220768</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1894067542037367</v>
+        <v>0.1894067542037366</v>
       </c>
       <c r="O11" t="n">
         <v>0.06094406387305409</v>
@@ -1143,7 +1143,7 @@
         <v>-0.3141025931015359</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3709677497153272</v>
+        <v>-0.3709677475724721</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1365015714297935</v>
@@ -1158,10 +1158,10 @@
         <v>-0.2305084487139168</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1024562335929308</v>
+        <v>-0.1024562345939813</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1434014885272772</v>
+        <v>-0.1434014885272771</v>
       </c>
       <c r="O12" t="n">
         <v>-0.07754592219861108</v>
@@ -1202,7 +1202,7 @@
         <v>0.2289719488727168</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3603989576159293</v>
+        <v>0.3603988752783024</v>
       </c>
       <c r="I13" t="n">
         <v>0.2880561868490849</v>
@@ -1217,10 +1217,10 @@
         <v>0.1189426768654079</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1138963289127005</v>
+        <v>0.1138963256217468</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08535527080989481</v>
+        <v>0.08535527080989483</v>
       </c>
       <c r="O13" t="n">
         <v>0.07390124506579737</v>
@@ -1261,7 +1261,7 @@
         <v>0.08411220450913268</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6454554427256751</v>
+        <v>0.6454554202793936</v>
       </c>
       <c r="I14" t="n">
         <v>1.015213667303887</v>
@@ -1276,10 +1276,10 @@
         <v>-0.2643171717331278</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.009688927294284437</v>
+        <v>-0.009688926333166727</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00405957743328163</v>
+        <v>0.004059577433281632</v>
       </c>
       <c r="O14" t="n">
         <v>0.1095618147453774</v>
@@ -1320,7 +1320,7 @@
         <v>-0.02370694510009552</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05584643639697911</v>
+        <v>0.05584648727774282</v>
       </c>
       <c r="I15" t="n">
         <v>-0.1429538961922274</v>
@@ -1335,10 +1335,10 @@
         <v>0.1856286426645317</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01130245018255964</v>
+        <v>0.01130245392144602</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05174477777512974</v>
+        <v>0.05174477777512976</v>
       </c>
       <c r="O15" t="n">
         <v>-0.000198921007325127</v>
@@ -1379,7 +1379,7 @@
         <v>-0.2626931106313594</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2355371900826446</v>
+        <v>-0.2355372186268129</v>
       </c>
       <c r="I16" t="n">
         <v>-0.1675889647683268</v>
@@ -1394,7 +1394,7 @@
         <v>-0.09090905587972992</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1306202856305693</v>
+        <v>-0.1306202891030318</v>
       </c>
       <c r="N16" t="n">
         <v>-0.1339239152122696</v>
@@ -1438,7 +1438,7 @@
         <v>0.4431137293689417</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3297297297297297</v>
+        <v>0.3297297247549528</v>
       </c>
       <c r="I17" t="n">
         <v>0.09876543728609483</v>
@@ -1453,7 +1453,7 @@
         <v>0.4722222222222222</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1425367167698758</v>
+        <v>0.1425367149822422</v>
       </c>
       <c r="N17" t="n">
         <v>0.1660718536495251</v>
@@ -1494,37 +1494,37 @@
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1929460392085975</v>
+        <v>0.2012448259211999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1414633650120681</v>
+        <v>0.1463414772263595</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1217442972286173</v>
+        <v>0.1207418600834225</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2547170121726892</v>
+        <v>0.2938005922960386</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08903018025869347</v>
+        <v>0.0969793056620416</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1113207835071492</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0535578025934033</v>
+        <v>0.05626302103518616</v>
       </c>
       <c r="N18" t="n">
-        <v>0.08854163505966595</v>
+        <v>0.08860561180561646</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02444757166721451</v>
+        <v>0.02368476815903229</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02865102483880014</v>
+        <v>0.02950568395517959</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1474058655480203</v>
+        <v>0.1489709861001418</v>
       </c>
     </row>
   </sheetData>
